--- a/src/main/resources/testdata/EmployeeData.xlsx
+++ b/src/main/resources/testdata/EmployeeData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA-Automation\src\main\resources\testdata\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Employee ID</t>
   </si>
@@ -113,12 +113,97 @@
   </si>
   <si>
     <t>mpptestautomation+b33f007@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+3529f4@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+e78816@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+23b735@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+e85517@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+a8aaeb@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+b960e9@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+c503c2@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+750876@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+97d58e@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+382898@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+34eeab@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+0fa3af@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+53dee4@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+cb347e@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+cd6361@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+2e479b@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+10cf6f@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+a9a375@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+75c2fe@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+eaa328@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+1dac09@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+72d7e8@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+5f4052@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+d8fffb@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+ced939@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+90abd3@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+1a6bfb@gmail.com</t>
+  </si>
+  <si>
+    <t>mpptestautomation+4473b8@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,20 +591,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="26" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="5" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -601,7 +686,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
